--- a/biology/Zoologie/Cercopithèque_de_l'Hœst/Cercopithèque_de_l'Hœst.xlsx
+++ b/biology/Zoologie/Cercopithèque_de_l'Hœst/Cercopithèque_de_l'Hœst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_l%27H%C5%93st</t>
+          <t>Cercopithèque_de_l'Hœst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allochrocebus lhoesti
 Le Cercopithèque de l'Hœst (Allochrocebus lhoesti) est un singe qu'on trouve dans la partie supérieure de l'Est du Bassin du Congo. Ils vivent principalement dans les zones forestières de montagne, dominés par les groupes de femelles. Ils ont un manteau noir et se distinguent par une barbe blanche caractéristique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_l%27H%C5%93st</t>
+          <t>Cercopithèque_de_l'Hœst</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Lutley Sclater a nommé Cercopithecus lhoesti en l'honneur de François L'Hoëst, directeur du zoo d'Anvers en 1898[1].
-La dénomination taxinomique complète du Cercopithèque de l'Hœst peut varier selon les auteurs. Ces variations concernent d'une part l'année de description (1898 ou 1899) et d'autre part la présence ou non des parenthèses encadrant le nom de l'auteur et la date de description. Pour ce qui concerne la date, certains considèrent que les comptes rendus de la société zoologique de Londres pour l'année 1898 ont effectivement été publié en 1899 et que cette date s'applique, d'autres considèrent que la description a été effectivement présentée devant la société zoologique le 15 novembre 1898[1] et que cette date s'applique. Pour ce qui concerne les parenthèses, leur présence indique que le nom binominal initialement donné par l'auteur a été modifié. L'orthographe du nom binominal donné par Philip Lutley Sclater est Cercopithecus l'hoesti[1] et certains contrairement à d'autres considèrent que la suppression de l'apostrophe (conformément à l'article 32.5.2.1 du code international de nomenclature zoologique) vaut modification.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philip Lutley Sclater a nommé Cercopithecus lhoesti en l'honneur de François L'Hoëst, directeur du zoo d'Anvers en 1898.
+La dénomination taxinomique complète du Cercopithèque de l'Hœst peut varier selon les auteurs. Ces variations concernent d'une part l'année de description (1898 ou 1899) et d'autre part la présence ou non des parenthèses encadrant le nom de l'auteur et la date de description. Pour ce qui concerne la date, certains considèrent que les comptes rendus de la société zoologique de Londres pour l'année 1898 ont effectivement été publié en 1899 et que cette date s'applique, d'autres considèrent que la description a été effectivement présentée devant la société zoologique le 15 novembre 1898 et que cette date s'applique. Pour ce qui concerne les parenthèses, leur présence indique que le nom binominal initialement donné par l'auteur a été modifié. L'orthographe du nom binominal donné par Philip Lutley Sclater est Cercopithecus l'hoesti et certains contrairement à d'autres considèrent que la suppression de l'apostrophe (conformément à l'article 32.5.2.1 du code international de nomenclature zoologique) vaut modification.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_l%27H%C5%93st</t>
+          <t>Cercopithèque_de_l'Hœst</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_l%27H%C5%93st</t>
+          <t>Cercopithèque_de_l'Hœst</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Il se nourrit principalement de fruits, de feuilles et d'invertébrés (notamment d'insectes, de vers de terre et d'araignées). Il se nourrit particulièrement des fruits de Myrianthus arboreus, Polycias fulva, Musanga leo-errerae et de figues[2].
-Reproduction
-Cette espèce est polygame, le mâle vit avec plusieurs femelles. La gestation dure 5 mois. Le petit naît les yeux ouverts, recouvert d'une fourrure brune. La fourrure s'assombrit peu à peu et atteint sa couleur définitive au bout de 2 à 3 mois[2].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement de fruits, de feuilles et d'invertébrés (notamment d'insectes, de vers de terre et d'araignées). Il se nourrit particulièrement des fruits de Myrianthus arboreus, Polycias fulva, Musanga leo-errerae et de figues.
 </t>
         </is>
       </c>
@@ -587,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_l%27H%C5%93st</t>
+          <t>Cercopithèque_de_l'Hœst</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,12 +621,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est présente à l'est du RD Congo, au sud-ouest de l'Ouganda, au sud-ouest du Rwanda et au nord-ouest du Burundi[3].
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est polygame, le mâle vit avec plusieurs femelles. La gestation dure 5 mois. Le petit naît les yeux ouverts, recouvert d'une fourrure brune. La fourrure s'assombrit peu à peu et atteint sa couleur définitive au bout de 2 à 3 mois.
 </t>
         </is>
       </c>
@@ -618,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_l%27H%C5%93st</t>
+          <t>Cercopithèque_de_l'Hœst</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,12 +658,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente à l'est du RD Congo, au sud-ouest de l'Ouganda, au sud-ouest du Rwanda et au nord-ouest du Burundi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cercopithèque_de_l'Hœst</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercopith%C3%A8que_de_l%27H%C5%93st</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains auteurs préconisent de placer ce primate dans le genre Allochrocebus[4],[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains auteurs préconisent de placer ce primate dans le genre Allochrocebus,.
 </t>
         </is>
       </c>
